--- a/Calibração.xlsx
+++ b/Calibração.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\PlatformIO\Projects\TchauBasico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA57F5-3183-4484-BED5-F2352417ECC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF02C3-C7A1-47AE-A41F-6DF019FB3C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{235022ED-0B5F-4BDB-9C78-D5D36C11F665}"/>
+    <workbookView xWindow="14310" yWindow="5040" windowWidth="20910" windowHeight="11835" xr2:uid="{235022ED-0B5F-4BDB-9C78-D5D36C11F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FCDF7D-01DC-4267-9882-EB83AFB1D736}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,16 +465,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -492,16 +492,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -519,16 +519,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -546,16 +546,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -573,16 +573,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -600,16 +600,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="D7" s="2">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
